--- a/fuentes/contenidos/grado10/guion02/Esqueleto_CS_10_02_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion02/Esqueleto_CS_10_02_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zambanitos\Documents\MABEL\TRABAJO\PLANETA\JOSE_GUILLERMO\UNIDAD2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zambanitos\Documents\GitHub\CienciasSociales\fuentes\contenidos\grado10\guion02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1395" windowWidth="19440" windowHeight="13125" tabRatio="729" activeTab="4"/>
+    <workbookView xWindow="3405" yWindow="1395" windowWidth="19440" windowHeight="13125" tabRatio="729"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>CS_10_02_CO</t>
   </si>
   <si>
-    <t>Esta unidad tiene el propósito de presentar tendencias que marcaron y marcan la política y la economía en Asia, África y Medio Oriente al final del siglo XX y comienzos del XXI.Esta rivalidad se conoció como Guerra Fría. Esta unidad tiene como objetivo estudiar las situaciones que rodearon su desenlace.</t>
-  </si>
-  <si>
     <t>Protagonistas de Asia al final del siglo xx</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
   </si>
   <si>
     <t>Mapa</t>
+  </si>
+  <si>
+    <t>Esta unidad tiene el propósito de presentar tendencias que marcaron y marcan la política y la economía en Asia, África y Medio Oriente al final del siglo XX y comienzos del XXI.</t>
   </si>
 </sst>
 </file>
@@ -1557,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1583,12 +1583,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.5">
+    <row r="3" spans="1:2" ht="29.25">
       <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
@@ -1768,7 +1768,7 @@
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1">
       <c r="A2" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1">
       <c r="A3" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1">
       <c r="A5" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>23</v>
@@ -1975,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>23</v>
@@ -1997,7 +1997,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>23</v>
@@ -2008,7 +2008,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>23</v>
@@ -2019,7 +2019,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>23</v>
@@ -2030,7 +2030,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>23</v>
@@ -2041,7 +2041,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>23</v>
@@ -2052,7 +2052,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>23</v>
@@ -2063,7 +2063,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>23</v>
@@ -2074,7 +2074,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
@@ -2131,7 +2131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A2" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>46</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>25</v>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A3" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>46</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>24</v>
@@ -2213,10 +2213,10 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A4" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>46</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>25</v>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A5" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>45</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>46</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>24</v>
@@ -2247,10 +2247,10 @@
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A6" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>46</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>25</v>
@@ -2264,10 +2264,10 @@
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A7" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>46</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>24</v>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A8" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>46</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>24</v>
@@ -2298,10 +2298,10 @@
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A9" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>46</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>25</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>46</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>26</v>
@@ -2332,10 +2332,10 @@
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>46</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>29</v>
@@ -2345,7 +2345,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>23</v>
@@ -2353,12 +2353,12 @@
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A12" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>25</v>
@@ -2370,12 +2370,12 @@
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A13" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>24</v>
@@ -2387,12 +2387,12 @@
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A14" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>25</v>
@@ -2404,12 +2404,12 @@
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A15" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>29</v>
@@ -2417,7 +2417,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>23</v>
@@ -2425,12 +2425,12 @@
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A16" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>27</v>
@@ -2446,12 +2446,12 @@
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A17" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>25</v>
@@ -2463,12 +2463,12 @@
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A18" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>24</v>
@@ -2480,12 +2480,12 @@
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A19" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>25</v>
@@ -2497,12 +2497,12 @@
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A20" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>26</v>
@@ -2514,12 +2514,12 @@
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A21" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="8"/>
       <c r="D21" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>29</v>
@@ -2527,7 +2527,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>23</v>
@@ -2535,12 +2535,12 @@
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A22" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="8"/>
       <c r="D22" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>27</v>
@@ -2548,7 +2548,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>23</v>
@@ -2556,10 +2556,10 @@
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A23" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>25</v>
@@ -2573,10 +2573,10 @@
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A24" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>24</v>
@@ -2590,10 +2590,10 @@
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A25" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>25</v>
@@ -2607,12 +2607,12 @@
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A26" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="8"/>
       <c r="D26" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>25</v>
@@ -2624,12 +2624,12 @@
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A27" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="8"/>
       <c r="D27" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>24</v>
@@ -2641,12 +2641,12 @@
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A28" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>25</v>
@@ -2658,12 +2658,12 @@
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A29" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="8"/>
       <c r="D29" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>28</v>
@@ -2675,12 +2675,12 @@
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A30" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="8"/>
       <c r="D30" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>29</v>
@@ -2688,7 +2688,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>23</v>
@@ -2696,12 +2696,12 @@
     </row>
     <row r="31" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A31" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>25</v>
@@ -2713,12 +2713,12 @@
     </row>
     <row r="32" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A32" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>24</v>
@@ -2730,12 +2730,12 @@
     </row>
     <row r="33" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A33" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>25</v>
@@ -2747,12 +2747,12 @@
     </row>
     <row r="34" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A34" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="8"/>
       <c r="D34" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>24</v>
@@ -2764,12 +2764,12 @@
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A35" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>25</v>
@@ -2781,10 +2781,10 @@
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A36" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>25</v>
@@ -2798,10 +2798,10 @@
     </row>
     <row r="37" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A37" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>24</v>
@@ -2815,12 +2815,12 @@
     </row>
     <row r="38" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A38" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="27"/>
       <c r="C38" s="8"/>
       <c r="D38" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38" s="31" t="s">
         <v>25</v>
@@ -2832,12 +2832,12 @@
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A39" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="8"/>
       <c r="D39" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>25</v>
@@ -2849,12 +2849,12 @@
     </row>
     <row r="40" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A40" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="8"/>
       <c r="D40" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>25</v>
@@ -2866,12 +2866,12 @@
     </row>
     <row r="41" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A41" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="8"/>
       <c r="D41" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>25</v>
@@ -2883,12 +2883,12 @@
     </row>
     <row r="42" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A42" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="8"/>
       <c r="D42" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E42" s="31" t="s">
         <v>25</v>
@@ -2900,12 +2900,12 @@
     </row>
     <row r="43" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A43" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="8"/>
       <c r="D43" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>25</v>
@@ -2917,12 +2917,12 @@
     </row>
     <row r="44" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A44" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="8"/>
       <c r="D44" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>25</v>
@@ -2934,12 +2934,12 @@
     </row>
     <row r="45" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A45" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="8"/>
       <c r="D45" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>25</v>
@@ -2951,12 +2951,12 @@
     </row>
     <row r="46" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A46" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="27"/>
       <c r="C46" s="8"/>
       <c r="D46" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E46" s="31" t="s">
         <v>25</v>
@@ -2968,12 +2968,12 @@
     </row>
     <row r="47" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A47" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="8"/>
       <c r="D47" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>29</v>
@@ -2981,7 +2981,7 @@
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
       <c r="H47" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>23</v>
@@ -2989,12 +2989,12 @@
     </row>
     <row r="48" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A48" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="27"/>
       <c r="C48" s="8"/>
       <c r="D48" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>27</v>
@@ -3002,7 +3002,7 @@
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
       <c r="H48" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>23</v>
@@ -3010,10 +3010,10 @@
     </row>
     <row r="49" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A49" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>25</v>
@@ -3027,10 +3027,10 @@
     </row>
     <row r="50" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A50" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>24</v>
@@ -3044,10 +3044,10 @@
     </row>
     <row r="51" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A51" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>25</v>
@@ -3061,10 +3061,10 @@
     </row>
     <row r="52" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A52" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>27</v>
@@ -3074,7 +3074,7 @@
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
       <c r="H52" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>23</v>
@@ -3082,12 +3082,12 @@
     </row>
     <row r="53" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A53" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="27"/>
       <c r="C53" s="8"/>
       <c r="D53" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E53" s="31" t="s">
         <v>25</v>
@@ -3102,7 +3102,7 @@
       <c r="B54" s="29"/>
       <c r="C54" s="8"/>
       <c r="D54" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E54" s="31" t="s">
         <v>24</v>
@@ -3117,7 +3117,7 @@
       <c r="B55" s="29"/>
       <c r="C55" s="8"/>
       <c r="D55" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E55" s="31" t="s">
         <v>25</v>
@@ -3132,7 +3132,7 @@
       <c r="B56" s="29"/>
       <c r="C56" s="8"/>
       <c r="D56" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E56" s="31" t="s">
         <v>24</v>
@@ -3147,7 +3147,7 @@
       <c r="B57" s="29"/>
       <c r="C57" s="8"/>
       <c r="D57" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E57" s="31" t="s">
         <v>25</v>
@@ -3162,7 +3162,7 @@
       <c r="B58" s="29"/>
       <c r="C58" s="8"/>
       <c r="D58" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E58" s="31" t="s">
         <v>27</v>
@@ -3170,7 +3170,7 @@
       <c r="F58" s="31"/>
       <c r="G58" s="31"/>
       <c r="H58" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>23</v>
@@ -3179,7 +3179,7 @@
     <row r="59" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A59" s="27"/>
       <c r="B59" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>25</v>
@@ -3194,7 +3194,7 @@
     <row r="60" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A60" s="27"/>
       <c r="B60" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>24</v>
@@ -3209,7 +3209,7 @@
     <row r="61" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A61" s="27"/>
       <c r="B61" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>25</v>
@@ -3224,7 +3224,7 @@
     <row r="62" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A62" s="27"/>
       <c r="B62" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>24</v>
@@ -3239,7 +3239,7 @@
     <row r="63" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A63" s="27"/>
       <c r="B63" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>25</v>
@@ -3254,7 +3254,7 @@
     <row r="64" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A64" s="27"/>
       <c r="B64" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>24</v>
@@ -3269,7 +3269,7 @@
     <row r="65" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A65" s="27"/>
       <c r="B65" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>28</v>
@@ -3284,7 +3284,7 @@
     <row r="66" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A66" s="27"/>
       <c r="B66" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>27</v>
@@ -3294,7 +3294,7 @@
       <c r="F66" s="31"/>
       <c r="G66" s="31"/>
       <c r="H66" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>23</v>
@@ -3329,7 +3329,7 @@
     <row r="69" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A69" s="27"/>
       <c r="B69" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="27"/>
